--- a/biology/Mycologie/Oligoporus_stipticus/Oligoporus_stipticus.xlsx
+++ b/biology/Mycologie/Oligoporus_stipticus/Oligoporus_stipticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oligoporus stipticus est une espèce de champignons basidiomycètes de la famille des Fomitopsidaceae (anciennement des Polyporaceae).
-Ce champignon porte de nombreux noms vernaculaires : Polypore amer, blanchâtre ou styptique, Leptopore astringent ou blanchâtre[1].
+Ce champignon porte de nombreux noms vernaculaires : Polypore amer, blanchâtre ou styptique, Leptopore astringent ou blanchâtre.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Oligoporus stipticus (Pers.) Gilb. &amp; Ryvarden, 1987[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus stipticus Pers., 1801[2].
-Oligoporus stipticus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Oligoporus stipticus (Pers.) Gilb. &amp; Ryvarden, 1987.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus stipticus Pers., 1801.
+Oligoporus stipticus a pour synonymes :
 Bjerkandera acricula P.Karst., 1888
 Bjerkandera colliculosa P.Karst., 1890
 Bjerkandera stiptica (Pers.) P.Karst., 1882
@@ -566,7 +580,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) R.L. Gilbertson et L. Ryvarden, North American Polypores : Abortiporus — Lindtneria, vol. 1, Oslo, Fungiflora, 1987, 885 p. (ISBN 9780945345060).</t>
         </is>
